--- a/biology/Biochimie/Sorbose/Sorbose.xlsx
+++ b/biology/Biochimie/Sorbose/Sorbose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sorbose est un cétohexose (un hexose du type cétose), c'est un ose constitué d’une chaîne de cinq éléments carbone ainsi que d’une fonction cétone.
@@ -512,14 +524,16 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le L-sorbose est la configuration principalement présente dans la nature.
 Sa formule chimique est C6H12O6. 
 Une des voies de synthèse de la vitamine C (acide ascorbique) commence à partir du sorbose. 
 La réduction du sorbose produit le sorbitol ou bien l'iditol. 
-Dans l'eau à 27 °C, la forme isomère prédominante du sorbose est la forme α-sorbopyranose (98 %)[2]. 
-Le pouvoir sucrant du L-sorbose, sur une base molaire, est de 0,25 légèrement moins sucré que le xylitol qui est de 0,3[3].
+Dans l'eau à 27 °C, la forme isomère prédominante du sorbose est la forme α-sorbopyranose (98 %). 
+Le pouvoir sucrant du L-sorbose, sur une base molaire, est de 0,25 légèrement moins sucré que le xylitol qui est de 0,3.
 </t>
         </is>
       </c>
